--- a/biology/Médecine/Stat_(série_télévisée_québécoise)/Stat_(série_télévisée_québécoise).xlsx
+++ b/biology/Médecine/Stat_(série_télévisée_québécoise)/Stat_(série_télévisée_québécoise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stat_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_qu%C3%A9b%C3%A9coise)</t>
+          <t>Stat_(série_télévisée_québécoise)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stat est une série télévisée québécoise créée par Marie-Andrée Labbé et diffusée à partir du 12 septembre 2022 sur ICI Radio-Canada Télé[1].
-En décembre 2023, la série a été confirmée pour une troisième saison[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stat est une série télévisée québécoise créée par Marie-Andrée Labbé et diffusée à partir du 12 septembre 2022 sur ICI Radio-Canada Télé.
+En décembre 2023, la série a été confirmée pour une troisième saison.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stat_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_qu%C3%A9b%C3%A9coise)</t>
+          <t>Stat_(série_télévisée_québécoise)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stat suit l'histoire de la cheffe d'urgence Emmanuelle St-Cyr et de ses collègues de l'hôpital St-Vincent à Montréal, dont trois de ses amis de longue date : le psychiatre Philippe Dupéré, la chirurgienne Isabelle Granger et Éric Perron, le préposé aux bénéficiaires et ancien comédien.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stat_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_qu%C3%A9b%C3%A9coise)</t>
+          <t>Stat_(série_télévisée_québécoise)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scénariste : Marie-Andrée Labbé
 Réalisation : Danièle Méthot, Chantal Des Ruisseaux, Jean-Marc Piché
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stat_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_qu%C3%A9b%C3%A9coise)</t>
+          <t>Stat_(série_télévisée_québécoise)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personnages principaux
-Source : QuiJoueQui?[3] et Noovo Moi[4]
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Source : QuiJoueQui? et Noovo Moi
 Suzanne Clément : Emmanuelle St-Cyr, urgentologue et cheffe de l'urgence
 Normand D'Amour : Pascal St-Cyr, directeur des services professionnels (DSP)
 Patrick Labbé : Philippe Dupéré, psychiatre
@@ -602,8 +623,43 @@
 Marc Beaupré : Steve Jolicoeur
 Emmanuel Bédard : Alexis Fortin, enquêteur
 Isabelle Blais : Mylène Lapierre, PDG de l'hôpital
-Caroline Néron : Claude Coupal
-Personnages secondaires
+Caroline Néron : Claude Coupal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stat_(série_télévisée_québécoise)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stat_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_qu%C3%A9b%C3%A9coise)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Daniel Parent : Francois Éthier, ex-conjoint décédé d'Emmanuelle
 Robin L'Houmeau : Jérémy St-Cyr Éthier
 Marine Johnson (en) : Rosalie Dupéré, fille de Philippe
